--- a/bot3/liugji@digitalchinal.com_Bot_3_Output.xlsx
+++ b/bot3/liugji@digitalchinal.com_Bot_3_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90682A7-DED4-4A7A-8C84-14A705D6090F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742AC06D-F433-4341-BD79-3B5666D326FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,16 +212,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -544,366 +552,366 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>43591</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>8675309</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>43622</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>100</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>2.99</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>43590</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>8675310</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>43621</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>768</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>7680</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>43590</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>8675310</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>43621</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>199</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>1990</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" ht="27.6">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>43589</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>8675311</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>43620</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>199</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>1990</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>43589</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>8675311</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>43620</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>99</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>43587</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>8675313</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>43618</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>99</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>43587</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>8675313</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>43618</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>99</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>43587</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>8675313</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>43618</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>99</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>43587</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>8675313</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>43618</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>199</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>398</v>
       </c>
     </row>
